--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.686889</v>
+        <v>1.150126</v>
       </c>
       <c r="N2">
-        <v>2.060667</v>
+        <v>3.450378</v>
       </c>
       <c r="O2">
-        <v>0.2801468581979037</v>
+        <v>0.3945373201707233</v>
       </c>
       <c r="P2">
-        <v>0.2801468581979037</v>
+        <v>0.3945373201707233</v>
       </c>
       <c r="Q2">
-        <v>139.975383861222</v>
+        <v>95.44628959780599</v>
       </c>
       <c r="R2">
-        <v>1259.778454750998</v>
+        <v>859.016606380254</v>
       </c>
       <c r="S2">
-        <v>0.186783087747169</v>
+        <v>0.1771276922596378</v>
       </c>
       <c r="T2">
-        <v>0.1867830877471691</v>
+        <v>0.1771276922596378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>2.10369</v>
       </c>
       <c r="O3">
-        <v>0.2859958179183478</v>
+        <v>0.2405487790236168</v>
       </c>
       <c r="P3">
-        <v>0.2859958179183478</v>
+        <v>0.2405487790236168</v>
       </c>
       <c r="Q3">
-        <v>142.8978167142066</v>
+        <v>58.19345154762999</v>
       </c>
       <c r="R3">
-        <v>1286.08035042786</v>
+        <v>523.74106392867</v>
       </c>
       <c r="S3">
-        <v>0.1906827808000235</v>
+        <v>0.1079944733387697</v>
       </c>
       <c r="T3">
-        <v>0.1906827808000235</v>
+        <v>0.1079944733387697</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H4">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I4">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J4">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.19131</v>
       </c>
       <c r="O4">
-        <v>0.4338573238837485</v>
+        <v>0.3649139008056599</v>
       </c>
       <c r="P4">
-        <v>0.4338573238837484</v>
+        <v>0.3649139008056599</v>
       </c>
       <c r="Q4">
-        <v>216.77682142246</v>
+        <v>88.27980541737</v>
       </c>
       <c r="R4">
-        <v>1950.99139280214</v>
+        <v>794.51824875633</v>
       </c>
       <c r="S4">
-        <v>0.2892668906516279</v>
+        <v>0.1638282459443878</v>
       </c>
       <c r="T4">
-        <v>0.2892668906516279</v>
+        <v>0.1638282459443878</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.686889</v>
+        <v>1.150126</v>
       </c>
       <c r="N5">
-        <v>2.060667</v>
+        <v>3.450378</v>
       </c>
       <c r="O5">
-        <v>0.2801468581979037</v>
+        <v>0.3945373201707233</v>
       </c>
       <c r="P5">
-        <v>0.2801468581979037</v>
+        <v>0.3945373201707233</v>
       </c>
       <c r="Q5">
-        <v>43.370576266584</v>
+        <v>72.61963344758934</v>
       </c>
       <c r="R5">
-        <v>390.335186399256</v>
+        <v>653.5767010283039</v>
       </c>
       <c r="S5">
-        <v>0.057873676992222</v>
+        <v>0.1347663501589692</v>
       </c>
       <c r="T5">
-        <v>0.057873676992222</v>
+        <v>0.1347663501589692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
         <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>2.10369</v>
       </c>
       <c r="O6">
-        <v>0.2859958179183478</v>
+        <v>0.2405487790236168</v>
       </c>
       <c r="P6">
-        <v>0.2859958179183478</v>
+        <v>0.2405487790236168</v>
       </c>
       <c r="Q6">
         <v>44.27607545821333</v>
       </c>
       <c r="R6">
-        <v>398.48467912392</v>
+        <v>398.4846791239199</v>
       </c>
       <c r="S6">
-        <v>0.0590819746964296</v>
+        <v>0.08216683017510601</v>
       </c>
       <c r="T6">
-        <v>0.0590819746964296</v>
+        <v>0.08216683017510602</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
         <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>3.19131</v>
       </c>
       <c r="O7">
-        <v>0.4338573238837485</v>
+        <v>0.3649139008056599</v>
       </c>
       <c r="P7">
-        <v>0.4338573238837484</v>
+        <v>0.3649139008056599</v>
       </c>
       <c r="Q7">
         <v>67.16706471512001</v>
@@ -880,10 +880,10 @@
         <v>604.50358243608</v>
       </c>
       <c r="S7">
-        <v>0.08962770021650661</v>
+        <v>0.1246475606225811</v>
       </c>
       <c r="T7">
-        <v>0.08962770021650658</v>
+        <v>0.1246475606225811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>116.159826</v>
       </c>
       <c r="I8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.686889</v>
+        <v>1.150126</v>
       </c>
       <c r="N8">
-        <v>2.060667</v>
+        <v>3.450378</v>
       </c>
       <c r="O8">
-        <v>0.2801468581979037</v>
+        <v>0.3945373201707233</v>
       </c>
       <c r="P8">
-        <v>0.2801468581979037</v>
+        <v>0.3945373201707233</v>
       </c>
       <c r="Q8">
-        <v>26.596302240438</v>
+        <v>44.53281201269201</v>
       </c>
       <c r="R8">
-        <v>239.366720163942</v>
+        <v>400.795308114228</v>
       </c>
       <c r="S8">
-        <v>0.0354900934585127</v>
+        <v>0.08264327775211631</v>
       </c>
       <c r="T8">
-        <v>0.0354900934585127</v>
+        <v>0.08264327775211631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>116.159826</v>
       </c>
       <c r="I9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>2.10369</v>
       </c>
       <c r="O9">
-        <v>0.2859958179183478</v>
+        <v>0.2405487790236168</v>
       </c>
       <c r="P9">
-        <v>0.2859958179183478</v>
+        <v>0.2405487790236168</v>
       </c>
       <c r="Q9">
-        <v>27.15158492865999</v>
+        <v>27.15158492866</v>
       </c>
       <c r="R9">
         <v>244.36426435794</v>
       </c>
       <c r="S9">
-        <v>0.03623106242189474</v>
+        <v>0.05038747550974112</v>
       </c>
       <c r="T9">
-        <v>0.03623106242189474</v>
+        <v>0.05038747550974113</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>116.159826</v>
       </c>
       <c r="I10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.19131</v>
       </c>
       <c r="O10">
-        <v>0.4338573238837485</v>
+        <v>0.3649139008056599</v>
       </c>
       <c r="P10">
-        <v>0.4338573238837484</v>
+        <v>0.3649139008056599</v>
       </c>
       <c r="Q10">
-        <v>41.18911270134</v>
+        <v>41.18911270134001</v>
       </c>
       <c r="R10">
         <v>370.70201431206</v>
       </c>
       <c r="S10">
-        <v>0.05496273301561396</v>
+        <v>0.07643809423869105</v>
       </c>
       <c r="T10">
-        <v>0.05496273301561395</v>
+        <v>0.07643809423869105</v>
       </c>
     </row>
   </sheetData>
